--- a/data/raw/trial_balances/HazTrain TB.2023 by month GENAESIS Confidential.xlsx
+++ b/data/raw/trial_balances/HazTrain TB.2023 by month GENAESIS Confidential.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Finance-Model\documents\trial_balances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Finance-Model\data\raw\trial_balances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F362F1B-9FAE-4C90-8AA2-0A22907AD4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49610C8-3FC9-44AA-B606-3D9FB3F348F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5303" yWindow="1643" windowWidth="16200" windowHeight="9982" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan 2023 Trial Balance" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="June 2023 Trial Balance" sheetId="6" r:id="rId6"/>
     <sheet name="July 2023 Trial Balance" sheetId="7" r:id="rId7"/>
     <sheet name="August 2023 Trial Balance" sheetId="8" r:id="rId8"/>
+    <sheet name="September 2023 Trial Balance" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'April 2023 Trial Balance'!$1:$1</definedName>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="176">
   <si>
     <t>Account ID</t>
   </si>
@@ -566,6 +567,18 @@
   </si>
   <si>
     <t>WACO/LOCAL PRIVATE</t>
+  </si>
+  <si>
+    <t>22600</t>
+  </si>
+  <si>
+    <t>401 K Payable</t>
+  </si>
+  <si>
+    <t>34550</t>
+  </si>
+  <si>
+    <t>Other Income - MD State Ref</t>
   </si>
 </sst>
 </file>
@@ -7205,8 +7218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0107BBC-2C01-4333-A0E7-AA0212C27559}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
@@ -8162,4 +8175,978 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C31123-2862-489F-9431-11AEF0A0464D}">
+  <dimension ref="A1:D87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.6640625" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1275516.5900000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1358.11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6">
+        <v>942831.53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6">
+        <v>13100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6">
+        <v>111809.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6">
+        <v>43496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6">
+        <v>253111.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6">
+        <v>332340.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6">
+        <v>21377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="6">
+        <v>215728.58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="6">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="6">
+        <v>81921.58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="6">
+        <v>25701.71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="6">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="6">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="6">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="6">
+        <v>162907.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1369607.08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1528369.52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1056091.55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="6">
+        <v>189515.49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="6">
+        <v>243898.33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="6">
+        <v>55581</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2258638.17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="6">
+        <v>2339172.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="6">
+        <v>19678.82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="6">
+        <v>54990</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="6">
+        <v>12637.69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="6">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1836121.41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1772721.37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="6">
+        <v>257059.08</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="6">
+        <v>175737.83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="6">
+        <v>745815.86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="6">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="6">
+        <v>124502.35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="6">
+        <v>25299.16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="6">
+        <v>67704.94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="6">
+        <v>87029.95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="6">
+        <v>124294.14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="6">
+        <v>169457.24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="6">
+        <v>13301.17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="6">
+        <v>202604.46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="6">
+        <v>2411.19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="6">
+        <v>3555.55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="6">
+        <v>52.17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="6">
+        <v>7327.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="6">
+        <v>5329.24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="6">
+        <v>2277.33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="6">
+        <v>5072.6099999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="6">
+        <v>472.82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="6">
+        <v>18530.03</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="6">
+        <v>58707.31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="6">
+        <v>1267.18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="6">
+        <v>18954.53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="6">
+        <v>18259.04</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="6">
+        <v>17726.349999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="6">
+        <v>2448.77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="6">
+        <v>7986.15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="6">
+        <v>2179.71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="6">
+        <v>197605.56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="6">
+        <v>10391.69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" s="6">
+        <v>13194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="6">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" s="6">
+        <v>12937.87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="6">
+        <v>130.18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" s="6">
+        <v>55146.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="6">
+        <v>227250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" s="6">
+        <v>75369.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C75" s="6">
+        <v>21030</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C76" s="6">
+        <v>16210</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C77" s="6">
+        <v>112652.07</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C78" s="6">
+        <v>13272.28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79" s="6">
+        <v>2372.98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" s="6">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D81" s="6">
+        <v>34.75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" s="6">
+        <v>2859.21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C83" s="6">
+        <v>868.46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C84" s="6">
+        <v>1476.49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+    </row>
+    <row r="86" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C86" s="5">
+        <f>SUBTOTAL(9, C2:C85)</f>
+        <v>10013964.91</v>
+      </c>
+      <c r="D86" s="5">
+        <f>SUBTOTAL(9, D2:D85)</f>
+        <v>10013964.91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/raw/trial_balances/HazTrain TB.2023 by month GENAESIS Confidential.xlsx
+++ b/data/raw/trial_balances/HazTrain TB.2023 by month GENAESIS Confidential.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Finance-Model\data\raw\trial_balances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49610C8-3FC9-44AA-B606-3D9FB3F348F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6F3580-E1E6-4127-A024-95589270EB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan 2023 Trial Balance" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="July 2023 Trial Balance" sheetId="7" r:id="rId7"/>
     <sheet name="August 2023 Trial Balance" sheetId="8" r:id="rId8"/>
     <sheet name="September 2023 Trial Balance" sheetId="9" r:id="rId9"/>
+    <sheet name="October 2023 Trial Balance" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'April 2023 Trial Balance'!$1:$1</definedName>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="176">
   <si>
     <t>Account ID</t>
   </si>
@@ -1779,6 +1780,969 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5D1982-F911-487C-9C25-3D1F26217EFC}">
+  <dimension ref="A1:D86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10.59765625" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6">
+        <v>242088.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1122.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1121157.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6">
+        <v>13100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6">
+        <v>111809.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6">
+        <v>43496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6">
+        <v>253111.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6">
+        <v>332583.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6">
+        <v>21377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="6">
+        <v>203333.54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="6">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="6">
+        <v>93556.18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="6">
+        <v>25701.71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="6">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="6">
+        <v>162907.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="6">
+        <v>4769607.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1617922.74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1172830.54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="6">
+        <v>221180.67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="6">
+        <v>268372.78999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="6">
+        <v>55581</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2495811.83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2595171.42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="6">
+        <v>21382.66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" s="6">
+        <v>54990</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="6">
+        <v>12637.69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" s="6">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="6">
+        <v>2024869.54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1938329.15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="6">
+        <v>344591.96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="6">
+        <v>185642.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="6">
+        <v>779831.24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="6">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="6">
+        <v>158492.01999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="6">
+        <v>26736.28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="6">
+        <v>75597.649999999994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="6">
+        <v>94162.87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="6">
+        <v>138537.63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="6">
+        <v>185617.97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="6">
+        <v>14658.49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="6">
+        <v>226224.81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="6">
+        <v>2462.98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="6">
+        <v>3804.03</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="6">
+        <v>71.02</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" s="6">
+        <v>7327.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="6">
+        <v>5797.24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="6">
+        <v>2277.33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="6">
+        <v>5511.31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="6">
+        <v>577.79999999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="6">
+        <v>18530.03</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="6">
+        <v>75762.929999999993</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="6">
+        <v>1283.1400000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="6">
+        <v>23633.11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="6">
+        <v>19040.919999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="6">
+        <v>19528.63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" s="6">
+        <v>2448.77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="6">
+        <v>8326.58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="6">
+        <v>2421.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="6">
+        <v>223416.65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="6">
+        <v>10846.04</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="6">
+        <v>13417.24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" s="6">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="6">
+        <v>12937.87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" s="6">
+        <v>130.18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="6">
+        <v>55160.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" s="6">
+        <v>277751.82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" s="6">
+        <v>85775.63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" s="6">
+        <v>54303.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" s="6">
+        <v>16210</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" s="6">
+        <v>134652.07</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" s="6">
+        <v>14720.58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C78" s="6">
+        <v>2372.98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C79" s="6">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D80" s="6">
+        <v>34.75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C81" s="6">
+        <v>2859.21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" s="6">
+        <v>868.46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" s="6">
+        <v>1476.49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+    </row>
+    <row r="85" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C85" s="5">
+        <f>SUBTOTAL(9, C2:C84)</f>
+        <v>10775149.890000002</v>
+      </c>
+      <c r="D85" s="5">
+        <f>SUBTOTAL(9, D2:D84)</f>
+        <v>14175149.889999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D74"/>
@@ -8181,8 +9145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C31123-2862-489F-9431-11AEF0A0464D}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>

--- a/data/raw/trial_balances/HazTrain TB.2023 by month GENAESIS Confidential.xlsx
+++ b/data/raw/trial_balances/HazTrain TB.2023 by month GENAESIS Confidential.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Finance-Model\data\raw\trial_balances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6F3580-E1E6-4127-A024-95589270EB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B9234F-E929-4EBE-8045-282B233114B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1785,7 +1785,7 @@
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
@@ -1928,7 +1928,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="6">
-        <v>203333.54</v>
+        <v>205158.54</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -2027,7 +2027,7 @@
         <v>41</v>
       </c>
       <c r="D21" s="6">
-        <v>4769607.08</v>
+        <v>1369607.08</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -2214,7 +2214,7 @@
         <v>67</v>
       </c>
       <c r="C38" s="6">
-        <v>779831.24</v>
+        <v>781656.24</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -2725,11 +2725,11 @@
       </c>
       <c r="C85" s="5">
         <f>SUBTOTAL(9, C2:C84)</f>
-        <v>10775149.890000002</v>
+        <v>10776974.890000002</v>
       </c>
       <c r="D85" s="5">
         <f>SUBTOTAL(9, D2:D84)</f>
-        <v>14175149.889999999</v>
+        <v>10776974.889999999</v>
       </c>
     </row>
     <row r="86" spans="1:4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">

--- a/data/raw/trial_balances/HazTrain TB.2023 by month GENAESIS Confidential.xlsx
+++ b/data/raw/trial_balances/HazTrain TB.2023 by month GENAESIS Confidential.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Finance-Model\data\raw\trial_balances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\data\raw\trial_balances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B9234F-E929-4EBE-8045-282B233114B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5546CEC9-AB5D-487B-A288-973A8705DA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1930" yWindow="980" windowWidth="33400" windowHeight="18750" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan 2023 Trial Balance" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="August 2023 Trial Balance" sheetId="8" r:id="rId8"/>
     <sheet name="September 2023 Trial Balance" sheetId="9" r:id="rId9"/>
     <sheet name="October 2023 Trial Balance" sheetId="10" r:id="rId10"/>
+    <sheet name="November 2023 Trial Balance" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'April 2023 Trial Balance'!$1:$1</definedName>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="180">
   <si>
     <t>Account ID</t>
   </si>
@@ -580,6 +581,18 @@
   </si>
   <si>
     <t>Other Income - MD State Ref</t>
+  </si>
+  <si>
+    <t>11700</t>
+  </si>
+  <si>
+    <t>ESCROW</t>
+  </si>
+  <si>
+    <t>22650</t>
+  </si>
+  <si>
+    <t>Employee 401 K Loan Payable</t>
   </si>
 </sst>
 </file>
@@ -589,7 +602,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00;* ??"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,6 +623,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -619,7 +645,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -667,11 +693,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -697,6 +734,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -979,17 +1040,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:D39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.73046875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.73046875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.73046875" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.19921875" style="1"/>
+    <col min="1" max="1" width="11.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.7265625" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1003,7 +1066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1014,7 +1077,7 @@
         <v>737289.83</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1025,7 +1088,7 @@
         <v>1207.69</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1036,7 +1099,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1047,7 +1110,7 @@
         <v>1082932.01</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1058,7 +1121,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1069,359 +1132,391 @@
         <v>111809.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="18">
         <v>43496</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="18">
         <v>253111.15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="6">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18">
         <v>330403.46000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="18">
         <v>377</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="6">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18">
         <v>153340.12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="6">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18">
         <v>111276.41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="6">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18">
         <v>4500</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="6">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18">
         <v>958.76</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="6">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18">
         <v>90537.89</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="6">
+      <c r="C17" s="18"/>
+      <c r="D17" s="18">
         <v>25701.71</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="6">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18">
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="6">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18">
         <v>162907.1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="6">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18">
         <v>1369607.08</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="6">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18">
         <v>123200.91</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="6">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18">
         <v>122179.65</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="6">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18">
         <v>5432.72</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="6">
+      <c r="C24" s="18"/>
+      <c r="D24" s="18">
         <v>18160.13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="6">
+      <c r="C25" s="18"/>
+      <c r="D25" s="18">
         <v>2525</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="6">
+      <c r="C26" s="18"/>
+      <c r="D26" s="18">
         <v>221277.59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="6">
+      <c r="C27" s="18"/>
+      <c r="D27" s="18">
         <v>283319.92</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="6">
+      <c r="C28" s="18"/>
+      <c r="D28" s="18">
         <v>1393.48</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="18">
         <v>190332.11</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="D29" s="18"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="18">
         <v>189448.26</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+      <c r="D30" s="18"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="18">
         <v>27946.28</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+      <c r="D31" s="18"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="18">
         <v>30893.06</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+      <c r="D32" s="18"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="18">
         <v>105173.44</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
+      <c r="D33" s="18"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="18">
         <v>4500</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+      <c r="D34" s="18"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="18">
         <v>16661.349999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+      <c r="D35" s="18"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="18">
         <v>2988.14</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+      <c r="D36" s="18"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="18">
         <v>7989.39</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+      <c r="D37" s="18"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="18">
         <v>24275.42</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+      <c r="D38" s="18"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="18">
         <v>15742.64</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D39" s="18"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
@@ -1432,7 +1527,7 @@
         <v>19793.68</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>82</v>
       </c>
@@ -1443,7 +1538,7 @@
         <v>1507.26</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>84</v>
       </c>
@@ -1454,7 +1549,7 @@
         <v>22515.02</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>86</v>
       </c>
@@ -1465,7 +1560,7 @@
         <v>1671.41</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>88</v>
       </c>
@@ -1476,7 +1571,7 @@
         <v>9594.2099999999991</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>90</v>
       </c>
@@ -1487,7 +1582,7 @@
         <v>18.87</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>92</v>
       </c>
@@ -1498,7 +1593,7 @@
         <v>2277.33</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>94</v>
       </c>
@@ -1509,7 +1604,7 @@
         <v>893.76</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>96</v>
       </c>
@@ -1520,7 +1615,7 @@
         <v>297.85000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>98</v>
       </c>
@@ -1531,7 +1626,7 @@
         <v>2535.1799999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>100</v>
       </c>
@@ -1542,7 +1637,7 @@
         <v>18526.25</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>102</v>
       </c>
@@ -1553,7 +1648,7 @@
         <v>776.64</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>104</v>
       </c>
@@ -1564,7 +1659,7 @@
         <v>300.11</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>106</v>
       </c>
@@ -1575,7 +1670,7 @@
         <v>1238.8800000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>108</v>
       </c>
@@ -1586,7 +1681,7 @@
         <v>2222.35</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>110</v>
       </c>
@@ -1597,7 +1692,7 @@
         <v>2362.9</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>112</v>
       </c>
@@ -1608,7 +1703,7 @@
         <v>242.19</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>114</v>
       </c>
@@ -1619,7 +1714,7 @@
         <v>19562.75</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>116</v>
       </c>
@@ -1630,7 +1725,7 @@
         <v>1352.18</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>118</v>
       </c>
@@ -1641,7 +1736,7 @@
         <v>645.55999999999995</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>120</v>
       </c>
@@ -1652,7 +1747,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>122</v>
       </c>
@@ -1663,7 +1758,7 @@
         <v>5507.1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>124</v>
       </c>
@@ -1674,7 +1769,7 @@
         <v>8910.18</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>126</v>
       </c>
@@ -1685,7 +1780,7 @@
         <v>25250</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>128</v>
       </c>
@@ -1696,7 +1791,7 @@
         <v>6934.73</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>130</v>
       </c>
@@ -1707,7 +1802,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>132</v>
       </c>
@@ -1718,7 +1813,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>134</v>
       </c>
@@ -1729,7 +1824,7 @@
         <v>1144.22</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>136</v>
       </c>
@@ -1740,11 +1835,11 @@
         <v>714.85</v>
       </c>
     </row>
-    <row r="69" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
     </row>
-    <row r="70" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>138</v>
       </c>
@@ -1760,7 +1855,7 @@
         <v>3027721.93</v>
       </c>
     </row>
-    <row r="71" spans="1:4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="12"/>
@@ -1784,19 +1879,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5D1982-F911-487C-9C25-3D1F26217EFC}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.59765625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="10.59765625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="10.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10.6328125" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1810,7 +1905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1821,7 +1916,7 @@
         <v>242088.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1832,7 +1927,7 @@
         <v>1122.24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1843,7 +1938,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1854,7 +1949,7 @@
         <v>1121157.2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1865,7 +1960,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1876,7 +1971,7 @@
         <v>111809.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1887,7 +1982,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1898,7 +1993,7 @@
         <v>253111.15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1909,7 +2004,7 @@
         <v>332583.17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1920,7 +2015,7 @@
         <v>21377</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -1931,7 +2026,7 @@
         <v>205158.54</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1942,7 +2037,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1953,7 +2048,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1964,7 +2059,7 @@
         <v>93556.18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -1975,7 +2070,7 @@
         <v>25701.71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>166</v>
       </c>
@@ -1986,7 +2081,7 @@
         <v>4245</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1997,7 +2092,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>160</v>
       </c>
@@ -2008,7 +2103,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -2019,7 +2114,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -2030,7 +2125,7 @@
         <v>1369607.08</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -2041,7 +2136,7 @@
         <v>1617922.74</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -2052,7 +2147,7 @@
         <v>1172830.54</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -2063,7 +2158,7 @@
         <v>221180.67</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -2074,7 +2169,7 @@
         <v>268372.78999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -2085,7 +2180,7 @@
         <v>55581</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2096,7 +2191,7 @@
         <v>2495811.83</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -2107,7 +2202,7 @@
         <v>2595171.42</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>170</v>
       </c>
@@ -2118,7 +2213,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>56</v>
       </c>
@@ -2129,7 +2224,7 @@
         <v>21382.66</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>174</v>
       </c>
@@ -2140,7 +2235,7 @@
         <v>54990</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>146</v>
       </c>
@@ -2151,7 +2246,7 @@
         <v>12637.69</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>156</v>
       </c>
@@ -2162,7 +2257,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>58</v>
       </c>
@@ -2173,7 +2268,7 @@
         <v>2024869.54</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>60</v>
       </c>
@@ -2184,7 +2279,7 @@
         <v>1938329.15</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>62</v>
       </c>
@@ -2195,7 +2290,7 @@
         <v>344591.96</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>64</v>
       </c>
@@ -2206,7 +2301,7 @@
         <v>185642.05</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -2217,7 +2312,7 @@
         <v>781656.24</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>68</v>
       </c>
@@ -2228,7 +2323,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>70</v>
       </c>
@@ -2239,7 +2334,7 @@
         <v>158492.01999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>72</v>
       </c>
@@ -2250,7 +2345,7 @@
         <v>26736.28</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>74</v>
       </c>
@@ -2261,7 +2356,7 @@
         <v>75597.649999999994</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>76</v>
       </c>
@@ -2272,7 +2367,7 @@
         <v>94162.87</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>78</v>
       </c>
@@ -2283,7 +2378,7 @@
         <v>138537.63</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>80</v>
       </c>
@@ -2294,7 +2389,7 @@
         <v>185617.97</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>82</v>
       </c>
@@ -2305,7 +2400,7 @@
         <v>14658.49</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>84</v>
       </c>
@@ -2316,7 +2411,7 @@
         <v>226224.81</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>86</v>
       </c>
@@ -2327,7 +2422,7 @@
         <v>2462.98</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>88</v>
       </c>
@@ -2338,7 +2433,7 @@
         <v>3804.03</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>90</v>
       </c>
@@ -2349,7 +2444,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>162</v>
       </c>
@@ -2360,7 +2455,7 @@
         <v>7327.2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>148</v>
       </c>
@@ -2371,7 +2466,7 @@
         <v>5797.24</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>92</v>
       </c>
@@ -2382,7 +2477,7 @@
         <v>2277.33</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>94</v>
       </c>
@@ -2393,7 +2488,7 @@
         <v>5511.31</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>96</v>
       </c>
@@ -2404,7 +2499,7 @@
         <v>577.79999999999995</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>98</v>
       </c>
@@ -2415,7 +2510,7 @@
         <v>18530.03</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>100</v>
       </c>
@@ -2426,7 +2521,7 @@
         <v>75762.929999999993</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>102</v>
       </c>
@@ -2437,7 +2532,7 @@
         <v>1283.1400000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>104</v>
       </c>
@@ -2448,7 +2543,7 @@
         <v>23633.11</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>106</v>
       </c>
@@ -2459,7 +2554,7 @@
         <v>19040.919999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>108</v>
       </c>
@@ -2470,7 +2565,7 @@
         <v>19528.63</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>150</v>
       </c>
@@ -2481,7 +2576,7 @@
         <v>2448.77</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>110</v>
       </c>
@@ -2492,7 +2587,7 @@
         <v>8326.58</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>112</v>
       </c>
@@ -2503,7 +2598,7 @@
         <v>2421.9</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>114</v>
       </c>
@@ -2514,7 +2609,7 @@
         <v>223416.65</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>116</v>
       </c>
@@ -2525,7 +2620,7 @@
         <v>10846.04</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>118</v>
       </c>
@@ -2536,7 +2631,7 @@
         <v>13417.24</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>120</v>
       </c>
@@ -2547,7 +2642,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>122</v>
       </c>
@@ -2558,7 +2653,7 @@
         <v>12937.87</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>152</v>
       </c>
@@ -2569,7 +2664,7 @@
         <v>130.18</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>124</v>
       </c>
@@ -2580,7 +2675,7 @@
         <v>55160.6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>126</v>
       </c>
@@ -2591,7 +2686,7 @@
         <v>277751.82</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>128</v>
       </c>
@@ -2602,7 +2697,7 @@
         <v>85775.63</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>140</v>
       </c>
@@ -2613,7 +2708,7 @@
         <v>54303.7</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>130</v>
       </c>
@@ -2624,7 +2719,7 @@
         <v>16210</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>132</v>
       </c>
@@ -2635,7 +2730,7 @@
         <v>134652.07</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>134</v>
       </c>
@@ -2646,7 +2741,7 @@
         <v>14720.58</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>136</v>
       </c>
@@ -2657,7 +2752,7 @@
         <v>2372.98</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>154</v>
       </c>
@@ -2668,7 +2763,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>164</v>
       </c>
@@ -2679,7 +2774,7 @@
         <v>34.75</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>142</v>
       </c>
@@ -2690,7 +2785,7 @@
         <v>2859.21</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>158</v>
       </c>
@@ -2701,7 +2796,7 @@
         <v>868.46</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>144</v>
       </c>
@@ -2712,11 +2807,11 @@
         <v>1476.49</v>
       </c>
     </row>
-    <row r="84" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
     </row>
-    <row r="85" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>138</v>
       </c>
@@ -2732,11 +2827,1052 @@
         <v>10776974.889999999</v>
       </c>
     </row>
-    <row r="86" spans="1:4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73260C0-F8D4-4B3F-ACF6-55334A57F8A3}">
+  <dimension ref="A1:D85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="14">
+        <v>515124.14</v>
+      </c>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14">
+        <v>441.85</v>
+      </c>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="14">
+        <v>100</v>
+      </c>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14">
+        <v>251828.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1075552.43</v>
+      </c>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="14">
+        <v>13100</v>
+      </c>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="14">
+        <v>111809.7</v>
+      </c>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="14">
+        <v>43496</v>
+      </c>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="14">
+        <v>253111.15</v>
+      </c>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20">
+        <v>332825.36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="20">
+        <v>21377</v>
+      </c>
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20">
+        <v>253124.55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20">
+        <v>49500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20">
+        <v>97005.91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20">
+        <v>25701.71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="20">
+        <v>11424.93</v>
+      </c>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="20">
+        <v>1385.43</v>
+      </c>
+      <c r="D18" s="20"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="20">
+        <v>1680000</v>
+      </c>
+      <c r="D21" s="20"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20">
+        <v>162907.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20">
+        <v>1369607.08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20">
+        <v>1678554.84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20">
+        <v>1289569.53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20">
+        <v>223992.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20">
+        <v>310333.37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20">
+        <v>55581</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20">
+        <v>2683318.7599999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20">
+        <v>2815643.36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20">
+        <v>22358.62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20">
+        <v>54990</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20">
+        <v>12637.69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="20">
+        <v>2229169.2200000002</v>
+      </c>
+      <c r="D36" s="20"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="20">
+        <v>2049670.58</v>
+      </c>
+      <c r="D37" s="20"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="20">
+        <v>354941.39</v>
+      </c>
+      <c r="D38" s="20"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="20">
+        <v>191808</v>
+      </c>
+      <c r="D39" s="20"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="20">
+        <v>887138.79</v>
+      </c>
+      <c r="D40" s="20"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="20">
+        <v>49500</v>
+      </c>
+      <c r="D41" s="20"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="20">
+        <v>172478.11</v>
+      </c>
+      <c r="D42" s="20"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="20">
+        <v>29721.759999999998</v>
+      </c>
+      <c r="D43" s="20"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="20">
+        <v>82844.98</v>
+      </c>
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="20">
+        <v>105005.03</v>
+      </c>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="14">
+        <v>153698.54999999999</v>
+      </c>
+      <c r="D46" s="14"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="14">
+        <v>203887.13</v>
+      </c>
+      <c r="D47" s="14"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="14">
+        <v>16166.2</v>
+      </c>
+      <c r="D48" s="14"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="14">
+        <v>248777.19</v>
+      </c>
+      <c r="D49" s="14"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="14">
+        <v>2506.88</v>
+      </c>
+      <c r="D50" s="14"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="14">
+        <v>4141.1000000000004</v>
+      </c>
+      <c r="D51" s="14"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="14">
+        <v>89.86</v>
+      </c>
+      <c r="D52" s="14"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="14">
+        <v>7327.2</v>
+      </c>
+      <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="14">
+        <v>5797.24</v>
+      </c>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="14">
+        <v>2277.33</v>
+      </c>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="14">
+        <v>5837.83</v>
+      </c>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="14">
+        <v>697.8</v>
+      </c>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="14">
+        <v>18530.03</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="14">
+        <v>75762.929999999993</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="14">
+        <v>1395.32</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" s="14">
+        <v>29885.03</v>
+      </c>
+      <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" s="14">
+        <v>19406.919999999998</v>
+      </c>
+      <c r="D62" s="14"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="14">
+        <v>21372.16</v>
+      </c>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="14">
+        <v>2448.77</v>
+      </c>
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="14">
+        <v>8838.67</v>
+      </c>
+      <c r="D65" s="14"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="14">
+        <v>2664.09</v>
+      </c>
+      <c r="D66" s="14"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="14">
+        <v>249705.68</v>
+      </c>
+      <c r="D67" s="14"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="14">
+        <v>11584.27</v>
+      </c>
+      <c r="D68" s="14"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" s="14">
+        <v>14952.36</v>
+      </c>
+      <c r="D69" s="14"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" s="14">
+        <v>2792</v>
+      </c>
+      <c r="D70" s="14"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="14">
+        <v>13573.98</v>
+      </c>
+      <c r="D71" s="14"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" s="14">
+        <v>130.18</v>
+      </c>
+      <c r="D72" s="14"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="14">
+        <v>56723.77</v>
+      </c>
+      <c r="D73" s="14"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" s="14">
+        <v>298865.45</v>
+      </c>
+      <c r="D74" s="14"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" s="14">
+        <v>95709.759999999995</v>
+      </c>
+      <c r="D75" s="14"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" s="14">
+        <v>65041.2</v>
+      </c>
+      <c r="D76" s="14"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C77" s="14">
+        <v>16210</v>
+      </c>
+      <c r="D77" s="14"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" s="14">
+        <v>134652.07</v>
+      </c>
+      <c r="D78" s="14"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C79" s="14">
+        <v>15873.77</v>
+      </c>
+      <c r="D79" s="14"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" s="14">
+        <v>2782.98</v>
+      </c>
+      <c r="D80" s="14"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" s="14">
+        <v>21000</v>
+      </c>
+      <c r="D81" s="14"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14">
+        <v>34.75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C83" s="14">
+        <v>2859.21</v>
+      </c>
+      <c r="D83" s="14"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" s="14">
+        <v>1048.92</v>
+      </c>
+      <c r="D84" s="14"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" s="14">
+        <v>1844.77</v>
+      </c>
+      <c r="D85" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2749,15 +3885,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.73046875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.73046875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.73046875" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.19921875" style="1"/>
+    <col min="1" max="1" width="11.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.7265625" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2771,7 +3907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2782,7 +3918,7 @@
         <v>1238993.67</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2793,7 +3929,7 @@
         <v>1817.49</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -2804,7 +3940,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2815,7 +3951,7 @@
         <v>964546.39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2826,7 +3962,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -2837,7 +3973,7 @@
         <v>111809.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -2848,7 +3984,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -2859,7 +3995,7 @@
         <v>253111.15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2870,7 +4006,7 @@
         <v>330645.65000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -2881,7 +4017,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -2892,7 +4028,7 @@
         <v>255603.89</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -2903,7 +4039,7 @@
         <v>199225.87</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -2914,7 +4050,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -2925,7 +4061,7 @@
         <v>479.38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -2936,7 +4072,7 @@
         <v>88093.68</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -2947,7 +4083,7 @@
         <v>25701.71</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -2958,7 +4094,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -2969,7 +4105,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -2980,7 +4116,7 @@
         <v>1369607.08</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -2991,7 +4127,7 @@
         <v>295137.01</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
@@ -3002,7 +4138,7 @@
         <v>238918.64</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -3013,7 +4149,7 @@
         <v>22622.58</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -3024,7 +4160,7 @@
         <v>53201.23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
@@ -3035,7 +4171,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -3046,7 +4182,7 @@
         <v>573853.88</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
@@ -3057,7 +4193,7 @@
         <v>515995.37</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>56</v>
       </c>
@@ -3068,7 +4204,7 @@
         <v>2805.82</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
@@ -3079,7 +4215,7 @@
         <v>416098.37</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -3090,7 +4226,7 @@
         <v>435227.13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>62</v>
       </c>
@@ -3101,7 +4237,7 @@
         <v>40958.31</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>64</v>
       </c>
@@ -3112,7 +4248,7 @@
         <v>37280</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -3123,7 +4259,7 @@
         <v>161605.21</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>68</v>
       </c>
@@ -3134,7 +4270,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>70</v>
       </c>
@@ -3145,7 +4281,7 @@
         <v>29515.75</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -3156,7 +4292,7 @@
         <v>4609.6899999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>74</v>
       </c>
@@ -3167,7 +4303,7 @@
         <v>16424.48</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>76</v>
       </c>
@@ -3178,7 +4314,7 @@
         <v>32818.92</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>78</v>
       </c>
@@ -3189,7 +4325,7 @@
         <v>27270</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
@@ -3200,7 +4336,7 @@
         <v>41478.46</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>82</v>
       </c>
@@ -3211,7 +4347,7 @@
         <v>3014.52</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>84</v>
       </c>
@@ -3222,7 +4358,7 @@
         <v>46646.38</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>86</v>
       </c>
@@ -3233,7 +4369,7 @@
         <v>2255.83</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>88</v>
       </c>
@@ -3244,7 +4380,7 @@
         <v>14836.66</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>90</v>
       </c>
@@ -3255,7 +4391,7 @@
         <v>25.56</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>92</v>
       </c>
@@ -3266,7 +4402,7 @@
         <v>2277.33</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>94</v>
       </c>
@@ -3277,7 +4413,7 @@
         <v>1334.24</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>96</v>
       </c>
@@ -3288,7 +4424,7 @@
         <v>297.85000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>98</v>
       </c>
@@ -3299,7 +4435,7 @@
         <v>2535.1799999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>100</v>
       </c>
@@ -3310,7 +4446,7 @@
         <v>18526.25</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>102</v>
       </c>
@@ -3321,7 +4457,7 @@
         <v>1122.1600000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>104</v>
       </c>
@@ -3332,7 +4468,7 @@
         <v>2264.8000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>106</v>
       </c>
@@ -3343,7 +4479,7 @@
         <v>2316.8200000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>108</v>
       </c>
@@ -3354,7 +4490,7 @@
         <v>4079.21</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>110</v>
       </c>
@@ -3365,7 +4501,7 @@
         <v>3560.06</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>112</v>
       </c>
@@ -3376,7 +4512,7 @@
         <v>484.38</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>114</v>
       </c>
@@ -3387,7 +4523,7 @@
         <v>41254.85</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>116</v>
       </c>
@@ -3398,7 +4534,7 @@
         <v>2812.53</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>118</v>
       </c>
@@ -3409,7 +4545,7 @@
         <v>1090.06</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>120</v>
       </c>
@@ -3420,7 +4556,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>122</v>
       </c>
@@ -3431,7 +4567,7 @@
         <v>5507.1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>124</v>
       </c>
@@ -3442,7 +4578,7 @@
         <v>13324.34</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>126</v>
       </c>
@@ -3453,7 +4589,7 @@
         <v>50500</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>128</v>
       </c>
@@ -3464,7 +4600,7 @@
         <v>15447.35</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>140</v>
       </c>
@@ -3475,7 +4611,7 @@
         <v>3817.5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>130</v>
       </c>
@@ -3486,7 +4622,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>132</v>
       </c>
@@ -3497,7 +4633,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>134</v>
       </c>
@@ -3508,7 +4644,7 @@
         <v>2520.0500000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -3519,7 +4655,7 @@
         <v>1159.8499999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>142</v>
       </c>
@@ -3530,7 +4666,7 @@
         <v>857.01</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>144</v>
       </c>
@@ -3541,11 +4677,11 @@
         <v>14.66</v>
       </c>
     </row>
-    <row r="72" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
     </row>
-    <row r="73" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>138</v>
       </c>
@@ -3561,7 +4697,7 @@
         <v>4146870.0700000003</v>
       </c>
     </row>
-    <row r="74" spans="1:4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="12"/>
@@ -3587,15 +4723,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.73046875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.73046875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.73046875" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.19921875" style="1"/>
+    <col min="1" max="1" width="11.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.7265625" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3609,7 +4745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3620,7 +4756,7 @@
         <v>1089580.81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3631,7 +4767,7 @@
         <v>1833.92</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3642,7 +4778,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3653,7 +4789,7 @@
         <v>1231335.82</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -3664,7 +4800,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -3675,7 +4811,7 @@
         <v>111809.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -3686,7 +4822,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -3697,7 +4833,7 @@
         <v>253111.15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -3708,7 +4844,7 @@
         <v>330887.84000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -3719,7 +4855,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -3730,7 +4866,7 @@
         <v>259894.28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -3741,7 +4877,7 @@
         <v>89967.84</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -3752,7 +4888,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -3763,7 +4899,7 @@
         <v>94131.34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -3774,7 +4910,7 @@
         <v>25701.71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -3785,7 +4921,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -3796,7 +4932,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -3807,7 +4943,7 @@
         <v>1369607.08</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
@@ -3818,7 +4954,7 @@
         <v>488937.21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
@@ -3829,7 +4965,7 @@
         <v>355657.63</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -3840,7 +4976,7 @@
         <v>53389.56</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
@@ -3851,7 +4987,7 @@
         <v>80532.45</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
@@ -3862,7 +4998,7 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -3873,7 +5009,7 @@
         <v>793625.38</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>54</v>
       </c>
@@ -3884,7 +5020,7 @@
         <v>770830.25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -3895,7 +5031,7 @@
         <v>4969.96</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>146</v>
       </c>
@@ -3906,7 +5042,7 @@
         <v>3331.3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
@@ -3917,7 +5053,7 @@
         <v>620842.56000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -3928,7 +5064,7 @@
         <v>599469.11</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>62</v>
       </c>
@@ -3939,7 +5075,7 @@
         <v>59814.58</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>64</v>
       </c>
@@ -3950,7 +5086,7 @@
         <v>77237.39</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -3961,7 +5097,7 @@
         <v>235340.11</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>68</v>
       </c>
@@ -3972,7 +5108,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>70</v>
       </c>
@@ -3983,7 +5119,7 @@
         <v>46345.87</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -3994,7 +5130,7 @@
         <v>7193.66</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>74</v>
       </c>
@@ -4005,7 +5141,7 @@
         <v>24342.84</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>76</v>
       </c>
@@ -4016,7 +5152,7 @@
         <v>45343.93</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>78</v>
       </c>
@@ -4027,7 +5163,7 @@
         <v>41885.78</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
@@ -4038,7 +5174,7 @@
         <v>60187.25</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>82</v>
       </c>
@@ -4049,7 +5185,7 @@
         <v>4521.78</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>84</v>
       </c>
@@ -4060,7 +5196,7 @@
         <v>68789.17</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>86</v>
       </c>
@@ -4071,7 +5207,7 @@
         <v>2267.94</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>88</v>
       </c>
@@ -4082,7 +5218,7 @@
         <v>14290.89</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>90</v>
       </c>
@@ -4093,7 +5229,7 @@
         <v>6.72</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>148</v>
       </c>
@@ -4104,7 +5240,7 @@
         <v>1244.8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -4115,7 +5251,7 @@
         <v>2277.33</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
@@ -4126,7 +5262,7 @@
         <v>1821.07</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
@@ -4137,7 +5273,7 @@
         <v>297.85000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>98</v>
       </c>
@@ -4148,7 +5284,7 @@
         <v>2535.1799999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>100</v>
       </c>
@@ -4159,7 +5295,7 @@
         <v>18526.25</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>102</v>
       </c>
@@ -4170,7 +5306,7 @@
         <v>1155.45</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>104</v>
       </c>
@@ -4181,7 +5317,7 @@
         <v>6193.36</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>106</v>
       </c>
@@ -4192,7 +5328,7 @@
         <v>3034.12</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>108</v>
       </c>
@@ -4203,7 +5339,7 @@
         <v>5935.11</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>150</v>
       </c>
@@ -4214,7 +5350,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>110</v>
       </c>
@@ -4225,7 +5361,7 @@
         <v>4572.3500000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>112</v>
       </c>
@@ -4236,7 +5372,7 @@
         <v>726.57</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>114</v>
       </c>
@@ -4247,7 +5383,7 @@
         <v>61454.99</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>116</v>
       </c>
@@ -4258,7 +5394,7 @@
         <v>3790.85</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>118</v>
       </c>
@@ -4269,7 +5405,7 @@
         <v>1288.71</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>120</v>
       </c>
@@ -4280,7 +5416,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>122</v>
       </c>
@@ -4291,7 +5427,7 @@
         <v>5751.68</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>152</v>
       </c>
@@ -4302,7 +5438,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>124</v>
       </c>
@@ -4313,7 +5449,7 @@
         <v>26185.5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>126</v>
       </c>
@@ -4324,7 +5460,7 @@
         <v>75750</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>128</v>
       </c>
@@ -4335,7 +5471,7 @@
         <v>23017.74</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>140</v>
       </c>
@@ -4346,7 +5482,7 @@
         <v>3817.5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>130</v>
       </c>
@@ -4357,7 +5493,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>132</v>
       </c>
@@ -4368,7 +5504,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>134</v>
       </c>
@@ -4379,7 +5515,7 @@
         <v>4015.54</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>136</v>
       </c>
@@ -4390,7 +5526,7 @@
         <v>1279.8499999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>154</v>
       </c>
@@ -4401,7 +5537,7 @@
         <v>54990</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>142</v>
       </c>
@@ -4412,7 +5548,7 @@
         <v>857.01</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>144</v>
       </c>
@@ -4423,11 +5559,11 @@
         <v>672.58</v>
       </c>
     </row>
-    <row r="76" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
     </row>
-    <row r="77" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>138</v>
       </c>
@@ -4443,7 +5579,7 @@
         <v>4956887.6499999994</v>
       </c>
     </row>
-    <row r="78" spans="1:4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="12"/>
@@ -4469,15 +5605,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.73046875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.73046875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.73046875" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.19921875" style="1"/>
+    <col min="1" max="1" width="11.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.7265625" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4491,7 +5627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -4502,7 +5638,7 @@
         <v>1367670.96</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -4513,7 +5649,7 @@
         <v>2953.41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -4524,7 +5660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -4535,7 +5671,7 @@
         <v>1349454.86</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -4546,7 +5682,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -4557,7 +5693,7 @@
         <v>111809.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -4568,7 +5704,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -4579,7 +5715,7 @@
         <v>253111.15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -4590,7 +5726,7 @@
         <v>331130.03000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -4601,7 +5737,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -4612,7 +5748,7 @@
         <v>445472.57</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -4623,7 +5759,7 @@
         <v>171868.34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -4634,7 +5770,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -4645,7 +5781,7 @@
         <v>88947.04</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -4656,7 +5792,7 @@
         <v>25701.71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -4667,7 +5803,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -4678,7 +5814,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -4689,7 +5825,7 @@
         <v>1369607.08</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
@@ -4700,7 +5836,7 @@
         <v>653429.03</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
@@ -4711,7 +5847,7 @@
         <v>472396.62</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -4722,7 +5858,7 @@
         <v>77239.17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
@@ -4733,7 +5869,7 @@
         <v>116288.71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
@@ -4744,7 +5880,7 @@
         <v>7270</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -4755,7 +5891,7 @@
         <v>1163156.3500000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>54</v>
       </c>
@@ -4766,7 +5902,7 @@
         <v>1050426.44</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -4777,7 +5913,7 @@
         <v>6953.77</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>146</v>
       </c>
@@ -4788,7 +5924,7 @@
         <v>3331.3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>156</v>
       </c>
@@ -4799,7 +5935,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -4810,7 +5946,7 @@
         <v>842080.43</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -4821,7 +5957,7 @@
         <v>903276.86</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -4832,7 +5968,7 @@
         <v>100920.43</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -4843,7 +5979,7 @@
         <v>92232.1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -4854,7 +5990,7 @@
         <v>370190.96</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
@@ -4865,7 +6001,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
@@ -4876,7 +6012,7 @@
         <v>58461.39</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
@@ -4887,7 +6023,7 @@
         <v>10177.41</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -4898,7 +6034,7 @@
         <v>32524.18</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
@@ -4909,7 +6045,7 @@
         <v>45343.93</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
@@ -4920,7 +6056,7 @@
         <v>57143.6</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
@@ -4931,7 +6067,7 @@
         <v>80007.929999999993</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
@@ -4942,7 +6078,7 @@
         <v>5932.71</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
@@ -4953,7 +6089,7 @@
         <v>92005.34</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
@@ -4964,7 +6100,7 @@
         <v>2267.94</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
@@ -4975,7 +6111,7 @@
         <v>3089.61</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>90</v>
       </c>
@@ -4986,7 +6122,7 @@
         <v>12.12</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>148</v>
       </c>
@@ -4997,7 +6133,7 @@
         <v>2159.86</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
@@ -5008,7 +6144,7 @@
         <v>2277.33</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>94</v>
       </c>
@@ -5019,7 +6155,7 @@
         <v>2292.44</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>96</v>
       </c>
@@ -5030,7 +6166,7 @@
         <v>472.82</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>98</v>
       </c>
@@ -5041,7 +6177,7 @@
         <v>12499.27</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>100</v>
       </c>
@@ -5052,7 +6188,7 @@
         <v>22026.25</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>102</v>
       </c>
@@ -5063,7 +6199,7 @@
         <v>1218.8599999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>104</v>
       </c>
@@ -5074,7 +6210,7 @@
         <v>8170.76</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>106</v>
       </c>
@@ -5085,7 +6221,7 @@
         <v>3743.42</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>108</v>
       </c>
@@ -5096,7 +6232,7 @@
         <v>7982.85</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>150</v>
       </c>
@@ -5107,7 +6243,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>110</v>
       </c>
@@ -5118,7 +6254,7 @@
         <v>5189.71</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>112</v>
       </c>
@@ -5129,7 +6265,7 @@
         <v>968.76</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>114</v>
       </c>
@@ -5140,7 +6276,7 @@
         <v>81731.14</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>116</v>
       </c>
@@ -5151,7 +6287,7 @@
         <v>4769.8900000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>118</v>
       </c>
@@ -5162,7 +6298,7 @@
         <v>1571.97</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>120</v>
       </c>
@@ -5173,7 +6309,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>122</v>
       </c>
@@ -5184,7 +6320,7 @@
         <v>7167.28</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>152</v>
       </c>
@@ -5195,7 +6331,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>124</v>
       </c>
@@ -5206,7 +6342,7 @@
         <v>30325.95</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>126</v>
       </c>
@@ -5217,7 +6353,7 @@
         <v>101000</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>128</v>
       </c>
@@ -5228,7 +6364,7 @@
         <v>31307.08</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>140</v>
       </c>
@@ -5239,7 +6375,7 @@
         <v>3817.5</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>130</v>
       </c>
@@ -5250,7 +6386,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>132</v>
       </c>
@@ -5261,7 +6397,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>134</v>
       </c>
@@ -5272,7 +6408,7 @@
         <v>4871.91</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>136</v>
       </c>
@@ -5283,7 +6419,7 @@
         <v>2034.85</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>154</v>
       </c>
@@ -5294,7 +6430,7 @@
         <v>54990</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>142</v>
       </c>
@@ -5305,7 +6441,7 @@
         <v>857.01</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>144</v>
       </c>
@@ -5316,11 +6452,11 @@
         <v>1006.33</v>
       </c>
     </row>
-    <row r="77" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
     </row>
-    <row r="78" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>138</v>
       </c>
@@ -5336,7 +6472,7 @@
         <v>6241115.2599999988</v>
       </c>
     </row>
-    <row r="79" spans="1:4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="12"/>
@@ -5364,15 +6500,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.73046875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.73046875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.73046875" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.19921875" style="1"/>
+    <col min="1" max="1" width="11.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.7265625" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5386,7 +6522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -5397,7 +6533,7 @@
         <v>1312552.22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -5408,7 +6544,7 @@
         <v>2347.36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -5419,7 +6555,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -5430,7 +6566,7 @@
         <v>1301002.33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -5441,7 +6577,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -5452,7 +6588,7 @@
         <v>111809.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -5463,7 +6599,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -5474,7 +6610,7 @@
         <v>253111.15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -5485,7 +6621,7 @@
         <v>331372.21999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -5496,7 +6632,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -5507,7 +6643,7 @@
         <v>272799.65999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -5518,7 +6654,7 @@
         <v>161393.69</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -5529,7 +6665,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -5540,7 +6676,7 @@
         <v>89811.59</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -5551,7 +6687,7 @@
         <v>25701.71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -5562,7 +6698,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -5573,7 +6709,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -5584,7 +6720,7 @@
         <v>1369607.08</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
@@ -5595,7 +6731,7 @@
         <v>939303.02</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
@@ -5606,7 +6742,7 @@
         <v>589135.61</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -5617,7 +6753,7 @@
         <v>90316</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
@@ -5628,7 +6764,7 @@
         <v>116288.71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
@@ -5639,7 +6775,7 @@
         <v>8270</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -5650,7 +6786,7 @@
         <v>1451656.01</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>54</v>
       </c>
@@ -5661,7 +6797,7 @@
         <v>1276268.22</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -5672,7 +6808,7 @@
         <v>9591.27</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>146</v>
       </c>
@@ -5683,7 +6819,7 @@
         <v>3331.3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>156</v>
       </c>
@@ -5694,7 +6830,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -5705,7 +6841,7 @@
         <v>1052268.8500000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -5716,7 +6852,7 @@
         <v>1160213.6200000001</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -5727,7 +6863,7 @@
         <v>137013.71</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -5738,7 +6874,7 @@
         <v>110587.97</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -5749,7 +6885,7 @@
         <v>490111.39</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
@@ -5760,7 +6896,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
@@ -5771,7 +6907,7 @@
         <v>68478.61</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
@@ -5782,7 +6918,7 @@
         <v>14504.17</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -5793,7 +6929,7 @@
         <v>40055.279999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
@@ -5804,7 +6940,7 @@
         <v>45343.93</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
@@ -5815,7 +6951,7 @@
         <v>68306.83</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
@@ -5826,7 +6962,7 @@
         <v>97349.55</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
@@ -5837,7 +6973,7 @@
         <v>7405.76</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
@@ -5848,7 +6984,7 @@
         <v>113645.41</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
@@ -5859,7 +6995,7 @@
         <v>2269.17</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
@@ -5870,7 +7006,7 @@
         <v>2920.87</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>90</v>
       </c>
@@ -5881,7 +7017,7 @@
         <v>30.95</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>148</v>
       </c>
@@ -5892,7 +7028,7 @@
         <v>2159.86</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
@@ -5903,7 +7039,7 @@
         <v>2277.33</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>94</v>
       </c>
@@ -5914,7 +7050,7 @@
         <v>2779.27</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>96</v>
       </c>
@@ -5925,7 +7061,7 @@
         <v>472.82</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>98</v>
       </c>
@@ -5936,7 +7072,7 @@
         <v>12499.27</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>100</v>
       </c>
@@ -5947,7 +7083,7 @@
         <v>41824.99</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>102</v>
       </c>
@@ -5958,7 +7094,7 @@
         <v>1269.01</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>104</v>
       </c>
@@ -5969,7 +7105,7 @@
         <v>10267.950000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>106</v>
       </c>
@@ -5980,7 +7116,7 @@
         <v>9602.14</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>108</v>
       </c>
@@ -5991,7 +7127,7 @@
         <v>9833.43</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>150</v>
       </c>
@@ -6002,7 +7138,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>110</v>
       </c>
@@ -6013,7 +7149,7 @@
         <v>5797.96</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>112</v>
       </c>
@@ -6024,7 +7160,7 @@
         <v>1210.95</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>114</v>
       </c>
@@ -6035,7 +7171,7 @@
         <v>103726.56</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>116</v>
       </c>
@@ -6046,7 +7182,7 @@
         <v>5765.37</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>118</v>
       </c>
@@ -6057,7 +7193,7 @@
         <v>7505.81</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>120</v>
       </c>
@@ -6068,7 +7204,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>122</v>
       </c>
@@ -6079,7 +7215,7 @@
         <v>9889.42</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>152</v>
       </c>
@@ -6090,7 +7226,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>124</v>
       </c>
@@ -6101,7 +7237,7 @@
         <v>33908.300000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>126</v>
       </c>
@@ -6112,7 +7248,7 @@
         <v>126250</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>128</v>
       </c>
@@ -6123,7 +7259,7 @@
         <v>40207.21</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>140</v>
       </c>
@@ -6134,7 +7270,7 @@
         <v>10530</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>130</v>
       </c>
@@ -6145,7 +7281,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>132</v>
       </c>
@@ -6156,7 +7292,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>134</v>
       </c>
@@ -6167,7 +7303,7 @@
         <v>6327.62</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>136</v>
       </c>
@@ -6178,7 +7314,7 @@
         <v>2094.85</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>154</v>
       </c>
@@ -6189,7 +7325,7 @@
         <v>33990</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>142</v>
       </c>
@@ -6200,7 +7336,7 @@
         <v>857.01</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>158</v>
       </c>
@@ -6211,7 +7347,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>144</v>
       </c>
@@ -6222,11 +7358,11 @@
         <v>729.23</v>
       </c>
     </row>
-    <row r="78" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
     </row>
-    <row r="79" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>138</v>
       </c>
@@ -6242,7 +7378,7 @@
         <v>6976243.1899999985</v>
       </c>
     </row>
-    <row r="80" spans="1:4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="12"/>
@@ -6267,15 +7403,16 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D15" sqref="B15:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -6289,7 +7426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -6301,7 +7438,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -6313,7 +7450,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -6325,7 +7462,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -6337,7 +7474,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -6349,7 +7486,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -6361,7 +7498,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -6373,7 +7510,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -6385,7 +7522,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -6397,7 +7534,7 @@
         <v>331372.21999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -6409,7 +7546,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -6421,7 +7558,7 @@
         <v>77286.679999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -6433,7 +7570,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -6445,7 +7582,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -6457,7 +7594,7 @@
         <v>89811.59</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -6469,7 +7606,7 @@
         <v>25701.71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -6481,7 +7618,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
@@ -6493,7 +7630,7 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -6505,7 +7642,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -6517,7 +7654,7 @@
         <v>1369607.08</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -6529,7 +7666,7 @@
         <v>939303.02</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
@@ -6541,7 +7678,7 @@
         <v>589135.61</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -6553,7 +7690,7 @@
         <v>121724.05</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -6565,7 +7702,7 @@
         <v>116288.71</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
@@ -6577,7 +7714,7 @@
         <v>8270</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -6589,7 +7726,7 @@
         <v>1615970.35</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
@@ -6601,7 +7738,7 @@
         <v>1491987.45</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>56</v>
       </c>
@@ -6613,7 +7750,7 @@
         <v>12754.7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>146</v>
       </c>
@@ -6625,7 +7762,7 @@
         <v>3331.3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>156</v>
       </c>
@@ -6637,7 +7774,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
@@ -6649,7 +7786,7 @@
       </c>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
@@ -6661,7 +7798,7 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
@@ -6673,7 +7810,7 @@
       </c>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
@@ -6685,7 +7822,7 @@
       </c>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -6697,7 +7834,7 @@
       </c>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>68</v>
       </c>
@@ -6709,7 +7846,7 @@
       </c>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
@@ -6721,7 +7858,7 @@
       </c>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>72</v>
       </c>
@@ -6733,7 +7870,7 @@
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>74</v>
       </c>
@@ -6745,7 +7882,7 @@
       </c>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>76</v>
       </c>
@@ -6757,7 +7894,7 @@
       </c>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>78</v>
       </c>
@@ -6769,7 +7906,7 @@
       </c>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>80</v>
       </c>
@@ -6781,7 +7918,7 @@
       </c>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>82</v>
       </c>
@@ -6793,7 +7930,7 @@
       </c>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>84</v>
       </c>
@@ -6805,7 +7942,7 @@
       </c>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>86</v>
       </c>
@@ -6817,7 +7954,7 @@
       </c>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>88</v>
       </c>
@@ -6829,7 +7966,7 @@
       </c>
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>90</v>
       </c>
@@ -6841,7 +7978,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>162</v>
       </c>
@@ -6853,7 +7990,7 @@
       </c>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>148</v>
       </c>
@@ -6865,7 +8002,7 @@
       </c>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>92</v>
       </c>
@@ -6877,7 +8014,7 @@
       </c>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
@@ -6889,7 +8026,7 @@
       </c>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>96</v>
       </c>
@@ -6901,7 +8038,7 @@
       </c>
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>98</v>
       </c>
@@ -6913,7 +8050,7 @@
       </c>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>100</v>
       </c>
@@ -6925,7 +8062,7 @@
       </c>
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>102</v>
       </c>
@@ -6937,7 +8074,7 @@
       </c>
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>104</v>
       </c>
@@ -6949,7 +8086,7 @@
       </c>
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>106</v>
       </c>
@@ -6961,7 +8098,7 @@
       </c>
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>108</v>
       </c>
@@ -6973,7 +8110,7 @@
       </c>
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>150</v>
       </c>
@@ -6985,7 +8122,7 @@
       </c>
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>110</v>
       </c>
@@ -6997,7 +8134,7 @@
       </c>
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>112</v>
       </c>
@@ -7009,7 +8146,7 @@
       </c>
       <c r="D61" s="6"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>114</v>
       </c>
@@ -7021,7 +8158,7 @@
       </c>
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>116</v>
       </c>
@@ -7033,7 +8170,7 @@
       </c>
       <c r="D63" s="6"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>118</v>
       </c>
@@ -7045,7 +8182,7 @@
       </c>
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>120</v>
       </c>
@@ -7057,7 +8194,7 @@
       </c>
       <c r="D65" s="6"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>122</v>
       </c>
@@ -7069,7 +8206,7 @@
       </c>
       <c r="D66" s="6"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>152</v>
       </c>
@@ -7081,7 +8218,7 @@
       </c>
       <c r="D67" s="6"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>124</v>
       </c>
@@ -7093,7 +8230,7 @@
       </c>
       <c r="D68" s="6"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>126</v>
       </c>
@@ -7105,7 +8242,7 @@
       </c>
       <c r="D69" s="6"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>128</v>
       </c>
@@ -7117,7 +8254,7 @@
       </c>
       <c r="D70" s="6"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>140</v>
       </c>
@@ -7129,7 +8266,7 @@
       </c>
       <c r="D71" s="6"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>130</v>
       </c>
@@ -7141,7 +8278,7 @@
       </c>
       <c r="D72" s="6"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>132</v>
       </c>
@@ -7153,7 +8290,7 @@
       </c>
       <c r="D73" s="6"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>134</v>
       </c>
@@ -7165,7 +8302,7 @@
       </c>
       <c r="D74" s="6"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>136</v>
       </c>
@@ -7177,7 +8314,7 @@
       </c>
       <c r="D75" s="6"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>154</v>
       </c>
@@ -7189,7 +8326,7 @@
         <v>33990</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>164</v>
       </c>
@@ -7201,7 +8338,7 @@
         <v>34.75</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>142</v>
       </c>
@@ -7213,7 +8350,7 @@
       </c>
       <c r="D78" s="6"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>158</v>
       </c>
@@ -7225,7 +8362,7 @@
       </c>
       <c r="D79" s="6"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>144</v>
       </c>
@@ -7246,16 +8383,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CBAA2B-1871-43B7-B6FB-A384545E3E17}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="L74" sqref="L74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -7269,7 +8406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -7280,7 +8417,7 @@
         <v>799700.97</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -7291,7 +8428,7 @@
         <v>840.97</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -7302,7 +8439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -7313,7 +8450,7 @@
         <v>1316834.43</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -7324,7 +8461,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -7335,7 +8472,7 @@
         <v>111809.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -7346,7 +8483,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -7357,7 +8494,7 @@
         <v>253111.15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -7368,7 +8505,7 @@
         <v>331856.59999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -7379,7 +8516,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -7390,7 +8527,7 @@
         <v>215634.1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -7401,7 +8538,7 @@
         <v>143458.69</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -7412,7 +8549,7 @@
         <v>31500</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -7423,7 +8560,7 @@
         <v>86785.09</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -7434,7 +8571,7 @@
         <v>25701.71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>166</v>
       </c>
@@ -7445,7 +8582,7 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -7456,7 +8593,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>160</v>
       </c>
@@ -7467,7 +8604,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -7478,7 +8615,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -7489,7 +8626,7 @@
         <v>1369607.08</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -7500,7 +8637,7 @@
         <v>1277501.28</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -7511,7 +8648,7 @@
         <v>822613.59</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -7522,7 +8659,7 @@
         <v>138010.68</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -7533,7 +8670,7 @@
         <v>213792.2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -7544,7 +8681,7 @@
         <v>8270</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -7555,7 +8692,7 @@
         <v>1890936.52</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -7566,7 +8703,7 @@
         <v>1769079.11</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -7577,7 +8714,7 @@
         <v>14569.9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>146</v>
       </c>
@@ -7588,7 +8725,7 @@
         <v>3331.3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>156</v>
       </c>
@@ -7599,7 +8736,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
@@ -7610,7 +8747,7 @@
         <v>1443225.15</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
@@ -7621,7 +8758,7 @@
         <v>1526135.04</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>62</v>
       </c>
@@ -7632,7 +8769,7 @@
         <v>191547.32</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>64</v>
       </c>
@@ -7643,7 +8780,7 @@
         <v>139267.98000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
@@ -7654,7 +8791,7 @@
         <v>598068.05000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>68</v>
       </c>
@@ -7665,7 +8802,7 @@
         <v>31500</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>70</v>
       </c>
@@ -7676,7 +8813,7 @@
         <v>98605.23</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>72</v>
       </c>
@@ -7687,7 +8824,7 @@
         <v>18763.560000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>74</v>
       </c>
@@ -7698,7 +8835,7 @@
         <v>53567.41</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>76</v>
       </c>
@@ -7709,7 +8846,7 @@
         <v>75926.8</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>78</v>
       </c>
@@ -7720,7 +8857,7 @@
         <v>95191.43</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>80</v>
       </c>
@@ -7731,7 +8868,7 @@
         <v>133431.41</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>82</v>
       </c>
@@ -7742,7 +8879,7 @@
         <v>10345.959999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>84</v>
       </c>
@@ -7753,7 +8890,7 @@
         <v>158620.07999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>86</v>
       </c>
@@ -7764,7 +8901,7 @@
         <v>2393.9299999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>88</v>
       </c>
@@ -7775,7 +8912,7 @@
         <v>3503.46</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>90</v>
       </c>
@@ -7786,7 +8923,7 @@
         <v>14.49</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>162</v>
       </c>
@@ -7797,7 +8934,7 @@
         <v>7327.2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>148</v>
       </c>
@@ -7808,7 +8945,7 @@
         <v>5329.24</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>92</v>
       </c>
@@ -7819,7 +8956,7 @@
         <v>2277.33</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>94</v>
       </c>
@@ -7830,7 +8967,7 @@
         <v>3925.94</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>96</v>
       </c>
@@ -7841,7 +8978,7 @@
         <v>472.82</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>98</v>
       </c>
@@ -7852,7 +8989,7 @@
         <v>12499.27</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>100</v>
       </c>
@@ -7863,7 +9000,7 @@
         <v>58707.31</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>102</v>
       </c>
@@ -7874,7 +9011,7 @@
         <v>1204.82</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>104</v>
       </c>
@@ -7885,7 +9022,7 @@
         <v>14254.56</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>106</v>
       </c>
@@ -7896,7 +9033,7 @@
         <v>11055.21</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>108</v>
       </c>
@@ -7907,7 +9044,7 @@
         <v>13885.02</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>150</v>
       </c>
@@ -7918,7 +9055,7 @@
         <v>1637.97</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>110</v>
       </c>
@@ -7929,7 +9066,7 @@
         <v>6768.3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>112</v>
       </c>
@@ -7940,7 +9077,7 @@
         <v>1695.33</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>114</v>
       </c>
@@ -7951,7 +9088,7 @@
         <v>149515.07999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>116</v>
       </c>
@@ -7962,7 +9099,7 @@
         <v>8032.53</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>118</v>
       </c>
@@ -7973,7 +9110,7 @@
         <v>9356.02</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>120</v>
       </c>
@@ -7984,7 +9121,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>122</v>
       </c>
@@ -7995,7 +9132,7 @@
         <v>12569.75</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>152</v>
       </c>
@@ -8006,7 +9143,7 @@
         <v>130.18</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>124</v>
       </c>
@@ -8017,7 +9154,7 @@
         <v>43867.35</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>126</v>
       </c>
@@ -8028,7 +9165,7 @@
         <v>176750</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>128</v>
       </c>
@@ -8039,7 +9176,7 @@
         <v>56620.72</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>140</v>
       </c>
@@ -8050,7 +9187,7 @@
         <v>10530</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>130</v>
       </c>
@@ -8061,7 +9198,7 @@
         <v>13210</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>132</v>
       </c>
@@ -8072,7 +9209,7 @@
         <v>90652.07</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>134</v>
       </c>
@@ -8083,7 +9220,7 @@
         <v>8731.09</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>136</v>
       </c>
@@ -8094,7 +9231,7 @@
         <v>2252.98</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>154</v>
       </c>
@@ -8105,7 +9242,7 @@
         <v>33990</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>164</v>
       </c>
@@ -8116,7 +9253,7 @@
         <v>34.75</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>142</v>
       </c>
@@ -8127,7 +9264,7 @@
         <v>1858.11</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>158</v>
       </c>
@@ -8138,7 +9275,7 @@
         <v>868.46</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>144</v>
       </c>
@@ -8149,11 +9286,11 @@
         <v>716.52</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
     </row>
-    <row r="83" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
         <v>138</v>
       </c>
@@ -8167,7 +9304,7 @@
         <v>8598579.7000000011</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="12"/>
@@ -8183,18 +9320,18 @@
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.73046875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.73046875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.73046875" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="1" width="11.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.7265625" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -8208,7 +9345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -8219,7 +9356,7 @@
         <v>1329638.3799999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -8230,7 +9367,7 @@
         <v>1198.1500000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -8241,7 +9378,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -8252,7 +9389,7 @@
         <v>942201.02</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -8263,7 +9400,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -8274,7 +9411,7 @@
         <v>111809.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -8285,7 +9422,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -8296,7 +9433,7 @@
         <v>253111.15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -8307,7 +9444,7 @@
         <v>332098.78999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -8318,7 +9455,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -8329,7 +9466,7 @@
         <v>393362.46</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -8340,7 +9477,7 @@
         <v>1652.24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -8351,7 +9488,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -8362,7 +9499,7 @@
         <v>84777.35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -8373,7 +9510,7 @@
         <v>25701.71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>168</v>
       </c>
@@ -8384,7 +9521,7 @@
         <v>552.66</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>166</v>
       </c>
@@ -8395,7 +9532,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -8406,7 +9543,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>160</v>
       </c>
@@ -8417,7 +9554,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -8428,7 +9565,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -8439,7 +9576,7 @@
         <v>1369607.08</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -8450,7 +9587,7 @@
         <v>1444880.6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -8461,7 +9598,7 @@
         <v>939352.56</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -8472,7 +9609,7 @@
         <v>173225.26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
@@ -8483,7 +9620,7 @@
         <v>240834.52</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
@@ -8494,7 +9631,7 @@
         <v>10795</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
@@ -8505,7 +9642,7 @@
         <v>2059252.87</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
@@ -8516,7 +9653,7 @@
         <v>2016548.48</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>170</v>
       </c>
@@ -8527,7 +9664,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>56</v>
       </c>
@@ -8538,7 +9675,7 @@
         <v>17104.57</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>146</v>
       </c>
@@ -8549,7 +9686,7 @@
         <v>3331.3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>156</v>
       </c>
@@ -8560,7 +9697,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>58</v>
       </c>
@@ -8571,7 +9708,7 @@
         <v>1644982.92</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>60</v>
       </c>
@@ -8582,7 +9719,7 @@
         <v>1652891.31</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>62</v>
       </c>
@@ -8593,7 +9730,7 @@
         <v>241606.11</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>64</v>
       </c>
@@ -8604,7 +9741,7 @@
         <v>162399.94</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>66</v>
       </c>
@@ -8615,7 +9752,7 @@
         <v>658079.84</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>68</v>
       </c>
@@ -8626,7 +9763,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>70</v>
       </c>
@@ -8637,7 +9774,7 @@
         <v>109588.52</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>72</v>
       </c>
@@ -8648,7 +9785,7 @@
         <v>21961.919999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>74</v>
       </c>
@@ -8659,7 +9796,7 @@
         <v>60457.58</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>76</v>
       </c>
@@ -8670,7 +9807,7 @@
         <v>75926.8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>78</v>
       </c>
@@ -8681,7 +9818,7 @@
         <v>110332.12</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>80</v>
       </c>
@@ -8692,7 +9829,7 @@
         <v>151244.69</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>82</v>
       </c>
@@ -8703,7 +9840,7 @@
         <v>11768.79</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>84</v>
       </c>
@@ -8714,7 +9851,7 @@
         <v>180300.68</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>86</v>
       </c>
@@ -8725,7 +9862,7 @@
         <v>2393.9299999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>88</v>
       </c>
@@ -8736,7 +9873,7 @@
         <v>3550.87</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>90</v>
       </c>
@@ -8747,7 +9884,7 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>162</v>
       </c>
@@ -8758,7 +9895,7 @@
         <v>7327.2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>148</v>
       </c>
@@ -8769,7 +9906,7 @@
         <v>5329.24</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>92</v>
       </c>
@@ -8780,7 +9917,7 @@
         <v>2277.33</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>94</v>
       </c>
@@ -8791,7 +9928,7 @@
         <v>4508.54</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>96</v>
       </c>
@@ -8802,7 +9939,7 @@
         <v>472.82</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>98</v>
       </c>
@@ -8813,7 +9950,7 @@
         <v>18530.03</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>100</v>
       </c>
@@ -8824,7 +9961,7 @@
         <v>58707.31</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>102</v>
       </c>
@@ -8835,7 +9972,7 @@
         <v>1258.03</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>104</v>
       </c>
@@ -8846,7 +9983,7 @@
         <v>14455.95</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>106</v>
       </c>
@@ -8857,7 +9994,7 @@
         <v>11992.72</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>108</v>
       </c>
@@ -8868,7 +10005,7 @@
         <v>15840.55</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>150</v>
       </c>
@@ -8879,7 +10016,7 @@
         <v>2448.77</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>110</v>
       </c>
@@ -8890,7 +10027,7 @@
         <v>7487.34</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>112</v>
       </c>
@@ -8901,7 +10038,7 @@
         <v>1937.52</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>114</v>
       </c>
@@ -8912,7 +10049,7 @@
         <v>171701.81</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>116</v>
       </c>
@@ -8923,7 +10060,7 @@
         <v>9034.93</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>118</v>
       </c>
@@ -8934,7 +10071,7 @@
         <v>10266.98</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>120</v>
       </c>
@@ -8945,7 +10082,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>122</v>
       </c>
@@ -8956,7 +10093,7 @@
         <v>12569.75</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>152</v>
       </c>
@@ -8967,7 +10104,7 @@
         <v>130.18</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>124</v>
       </c>
@@ -8978,7 +10115,7 @@
         <v>45297.24</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>126</v>
       </c>
@@ -8989,7 +10126,7 @@
         <v>202000</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>128</v>
       </c>
@@ -9000,7 +10137,7 @@
         <v>65863.570000000007</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>140</v>
       </c>
@@ -9011,7 +10148,7 @@
         <v>21030</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>130</v>
       </c>
@@ -9022,7 +10159,7 @@
         <v>13210</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>132</v>
       </c>
@@ -9033,7 +10170,7 @@
         <v>101652.07</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>134</v>
       </c>
@@ -9044,7 +10181,7 @@
         <v>9825.7099999999991</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>136</v>
       </c>
@@ -9055,7 +10192,7 @@
         <v>2312.98</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>154</v>
       </c>
@@ -9066,7 +10203,7 @@
         <v>33990</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>164</v>
       </c>
@@ -9077,7 +10214,7 @@
         <v>34.75</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>142</v>
       </c>
@@ -9088,7 +10225,7 @@
         <v>1858.11</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>158</v>
       </c>
@@ -9099,7 +10236,7 @@
         <v>868.46</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>144</v>
       </c>
@@ -9110,11 +10247,11 @@
         <v>966.93</v>
       </c>
     </row>
-    <row r="84" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
     </row>
-    <row r="85" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>138</v>
       </c>
@@ -9130,7 +10267,7 @@
         <v>9394157.0600000005</v>
       </c>
     </row>
-    <row r="86" spans="1:4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="12"/>
@@ -9146,18 +10283,18 @@
   <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.6640625" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="1" width="11.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.6328125" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -9171,7 +10308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -9182,7 +10319,7 @@
         <v>1275516.5900000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -9193,7 +10330,7 @@
         <v>1358.11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -9204,7 +10341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -9215,7 +10352,7 @@
         <v>942831.53</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -9226,7 +10363,7 @@
         <v>13100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -9237,7 +10374,7 @@
         <v>111809.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -9248,7 +10385,7 @@
         <v>43496</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -9259,7 +10396,7 @@
         <v>253111.15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -9270,7 +10407,7 @@
         <v>332340.98</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -9281,7 +10418,7 @@
         <v>21377</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -9292,7 +10429,7 @@
         <v>215728.58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -9303,7 +10440,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -9314,7 +10451,7 @@
         <v>40500</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -9325,7 +10462,7 @@
         <v>81921.58</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -9336,7 +10473,7 @@
         <v>25701.71</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>172</v>
       </c>
@@ -9347,7 +10484,7 @@
         <v>105.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>166</v>
       </c>
@@ -9358,7 +10495,7 @@
         <v>4245</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -9369,7 +10506,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>160</v>
       </c>
@@ -9380,7 +10517,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -9391,7 +10528,7 @@
         <v>162907.1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -9402,7 +10539,7 @@
         <v>1369607.08</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -9413,7 +10550,7 @@
         <v>1528369.52</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -9424,7 +10561,7 @@
         <v>1056091.55</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -9435,7 +10572,7 @@
         <v>189515.49</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
@@ -9446,7 +10583,7 @@
         <v>243898.33</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
@@ -9457,7 +10594,7 @@
         <v>55581</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
@@ -9468,7 +10605,7 @@
         <v>2258638.17</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
@@ -9479,7 +10616,7 @@
         <v>2339172.04</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>170</v>
       </c>
@@ -9490,7 +10627,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>56</v>
       </c>
@@ -9501,7 +10638,7 @@
         <v>19678.82</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>174</v>
       </c>
@@ -9512,7 +10649,7 @@
         <v>54990</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>146</v>
       </c>
@@ -9523,7 +10660,7 @@
         <v>12637.69</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>156</v>
       </c>
@@ -9534,7 +10671,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>58</v>
       </c>
@@ -9545,7 +10682,7 @@
         <v>1836121.41</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>60</v>
       </c>
@@ -9556,7 +10693,7 @@
         <v>1772721.37</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>62</v>
       </c>
@@ -9567,7 +10704,7 @@
         <v>257059.08</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>64</v>
       </c>
@@ -9578,7 +10715,7 @@
         <v>175737.83</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -9589,7 +10726,7 @@
         <v>745815.86</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>68</v>
       </c>
@@ -9600,7 +10737,7 @@
         <v>40500</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>70</v>
       </c>
@@ -9611,7 +10748,7 @@
         <v>124502.35</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>72</v>
       </c>
@@ -9622,7 +10759,7 @@
         <v>25299.16</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>74</v>
       </c>
@@ -9633,7 +10770,7 @@
         <v>67704.94</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>76</v>
       </c>
@@ -9644,7 +10781,7 @@
         <v>87029.95</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>78</v>
       </c>
@@ -9655,7 +10792,7 @@
         <v>124294.14</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>80</v>
       </c>
@@ -9666,7 +10803,7 @@
         <v>169457.24</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>82</v>
       </c>
@@ -9677,7 +10814,7 @@
         <v>13301.17</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>84</v>
       </c>
@@ -9688,7 +10825,7 @@
         <v>202604.46</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>86</v>
       </c>
@@ -9699,7 +10836,7 @@
         <v>2411.19</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>88</v>
       </c>
@@ -9710,7 +10847,7 @@
         <v>3555.55</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>90</v>
       </c>
@@ -9721,7 +10858,7 @@
         <v>52.17</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>162</v>
       </c>
@@ -9732,7 +10869,7 @@
         <v>7327.2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>148</v>
       </c>
@@ -9743,7 +10880,7 @@
         <v>5329.24</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>92</v>
       </c>
@@ -9754,7 +10891,7 @@
         <v>2277.33</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>94</v>
       </c>
@@ -9765,7 +10902,7 @@
         <v>5072.6099999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>96</v>
       </c>
@@ -9776,7 +10913,7 @@
         <v>472.82</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>98</v>
       </c>
@@ -9787,7 +10924,7 @@
         <v>18530.03</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>100</v>
       </c>
@@ -9798,7 +10935,7 @@
         <v>58707.31</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>102</v>
       </c>
@@ -9809,7 +10946,7 @@
         <v>1267.18</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>104</v>
       </c>
@@ -9820,7 +10957,7 @@
         <v>18954.53</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>106</v>
       </c>
@@ -9831,7 +10968,7 @@
         <v>18259.04</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>108</v>
       </c>
@@ -9842,7 +10979,7 @@
         <v>17726.349999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>150</v>
       </c>
@@ -9853,7 +10990,7 @@
         <v>2448.77</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>110</v>
       </c>
@@ -9864,7 +11001,7 @@
         <v>7986.15</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>112</v>
       </c>
@@ -9875,7 +11012,7 @@
         <v>2179.71</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>114</v>
       </c>
@@ -9886,7 +11023,7 @@
         <v>197605.56</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>116</v>
       </c>
@@ -9897,7 +11034,7 @@
         <v>10391.69</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>118</v>
       </c>
@@ -9908,7 +11045,7 @@
         <v>13194</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>120</v>
       </c>
@@ -9919,7 +11056,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>122</v>
       </c>
@@ -9930,7 +11067,7 @@
         <v>12937.87</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>152</v>
       </c>
@@ -9941,7 +11078,7 @@
         <v>130.18</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>124</v>
       </c>
@@ -9952,7 +11089,7 @@
         <v>55146.6</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>126</v>
       </c>
@@ -9963,7 +11100,7 @@
         <v>227250</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>128</v>
       </c>
@@ -9974,7 +11111,7 @@
         <v>75369.3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>140</v>
       </c>
@@ -9985,7 +11122,7 @@
         <v>21030</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>130</v>
       </c>
@@ -9996,7 +11133,7 @@
         <v>16210</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>132</v>
       </c>
@@ -10007,7 +11144,7 @@
         <v>112652.07</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>134</v>
       </c>
@@ -10018,7 +11155,7 @@
         <v>13272.28</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>136</v>
       </c>
@@ -10029,7 +11166,7 @@
         <v>2372.98</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>154</v>
       </c>
@@ -10040,7 +11177,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>164</v>
       </c>
@@ -10051,7 +11188,7 @@
         <v>34.75</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>142</v>
       </c>
@@ -10062,7 +11199,7 @@
         <v>2859.21</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>158</v>
       </c>
@@ -10073,7 +11210,7 @@
         <v>868.46</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>144</v>
       </c>
@@ -10084,11 +11221,11 @@
         <v>1476.49</v>
       </c>
     </row>
-    <row r="85" spans="1:4" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
     </row>
-    <row r="86" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4" s="4" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>138</v>
       </c>
@@ -10104,7 +11241,7 @@
         <v>10013964.91</v>
       </c>
     </row>
-    <row r="87" spans="1:4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:4" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="12"/>
